--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H2">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I2">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J2">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N2">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P2">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q2">
-        <v>0.35155738134</v>
+        <v>1.932149266998</v>
       </c>
       <c r="R2">
-        <v>3.164016432059999</v>
+        <v>17.389343402982</v>
       </c>
       <c r="S2">
-        <v>0.01871900827440659</v>
+        <v>0.06730730183364989</v>
       </c>
       <c r="T2">
-        <v>0.01871900827440659</v>
+        <v>0.06730730183364989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H3">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I3">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J3">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.734297</v>
       </c>
       <c r="O3">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P3">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q3">
-        <v>1.560036851604</v>
+        <v>5.918987974472999</v>
       </c>
       <c r="R3">
-        <v>14.040331664436</v>
+        <v>53.27089177025699</v>
       </c>
       <c r="S3">
-        <v>0.08306565096783491</v>
+        <v>0.2061906483894914</v>
       </c>
       <c r="T3">
-        <v>0.08306565096783491</v>
+        <v>0.2061906483894914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H4">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I4">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J4">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N4">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P4">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q4">
-        <v>0.746436487896</v>
+        <v>3.168493713393</v>
       </c>
       <c r="R4">
-        <v>6.717928391064</v>
+        <v>28.516443420537</v>
       </c>
       <c r="S4">
-        <v>0.03974472315155577</v>
+        <v>0.1103759250736944</v>
       </c>
       <c r="T4">
-        <v>0.03974472315155578</v>
+        <v>0.1103759250736944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H5">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I5">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J5">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N5">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O5">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P5">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q5">
-        <v>0.09412935642000002</v>
+        <v>0.7717630645799999</v>
       </c>
       <c r="R5">
-        <v>0.84716420778</v>
+        <v>6.945867581219999</v>
       </c>
       <c r="S5">
-        <v>0.005012007413909096</v>
+        <v>0.02688471870108494</v>
       </c>
       <c r="T5">
-        <v>0.005012007413909096</v>
+        <v>0.02688471870108494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J6">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N6">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P6">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q6">
-        <v>1.039140583456666</v>
+        <v>1.505241418657333</v>
       </c>
       <c r="R6">
-        <v>9.352265251109998</v>
+        <v>13.547172767916</v>
       </c>
       <c r="S6">
-        <v>0.05533003205864939</v>
+        <v>0.05243577203302344</v>
       </c>
       <c r="T6">
-        <v>0.0553300320586494</v>
+        <v>0.05243577203302344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J7">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.734297</v>
       </c>
       <c r="O7">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P7">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q7">
         <v>4.611189211873999</v>
@@ -883,10 +883,10 @@
         <v>41.50070290686599</v>
       </c>
       <c r="S7">
-        <v>0.2455271702244378</v>
+        <v>0.1606328814221963</v>
       </c>
       <c r="T7">
-        <v>0.2455271702244378</v>
+        <v>0.1606328814221963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.866178</v>
       </c>
       <c r="I8">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J8">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N8">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P8">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q8">
-        <v>2.206332418876</v>
+        <v>2.468415900167333</v>
       </c>
       <c r="R8">
-        <v>19.856991769884</v>
+        <v>22.215743101506</v>
       </c>
       <c r="S8">
-        <v>0.1174782752323688</v>
+        <v>0.08598839483125463</v>
       </c>
       <c r="T8">
-        <v>0.1174782752323688</v>
+        <v>0.08598839483125464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>3.866178</v>
       </c>
       <c r="I9">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J9">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N9">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O9">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P9">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q9">
-        <v>0.27822949977</v>
+        <v>0.6012422280399998</v>
       </c>
       <c r="R9">
-        <v>2.50406549793</v>
+        <v>5.411180052359999</v>
       </c>
       <c r="S9">
-        <v>0.01481459524054673</v>
+        <v>0.02094454750936503</v>
       </c>
       <c r="T9">
-        <v>0.01481459524054673</v>
+        <v>0.02094454750936503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H10">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I10">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J10">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N10">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P10">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q10">
-        <v>0.8451181012738888</v>
+        <v>1.034736917928444</v>
       </c>
       <c r="R10">
-        <v>7.606062911464999</v>
+        <v>9.312632261355999</v>
       </c>
       <c r="S10">
-        <v>0.0449991198315845</v>
+        <v>0.03604553294251386</v>
       </c>
       <c r="T10">
-        <v>0.04499911983158451</v>
+        <v>0.03604553294251386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H11">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I11">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J11">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.734297</v>
       </c>
       <c r="O11">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P11">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q11">
-        <v>3.750213910797666</v>
+        <v>3.169835518700666</v>
       </c>
       <c r="R11">
-        <v>33.75192519717899</v>
+        <v>28.52851966830599</v>
       </c>
       <c r="S11">
-        <v>0.1996837186562263</v>
+        <v>0.1104226674741847</v>
       </c>
       <c r="T11">
-        <v>0.1996837186562263</v>
+        <v>0.1104226674741847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H12">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I12">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J12">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N12">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P12">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q12">
-        <v>1.794378445327333</v>
+        <v>1.696844791171778</v>
       </c>
       <c r="R12">
-        <v>16.149406007946</v>
+        <v>15.271603120546</v>
       </c>
       <c r="S12">
-        <v>0.09554339276698169</v>
+        <v>0.05911036299059066</v>
       </c>
       <c r="T12">
-        <v>0.09554339276698172</v>
+        <v>0.05911036299059067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.048102333333333</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H13">
-        <v>3.144307</v>
+        <v>2.657698</v>
       </c>
       <c r="I13">
-        <v>0.3522747286382594</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J13">
-        <v>0.3522747286382595</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N13">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O13">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P13">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q13">
-        <v>0.226280053255</v>
+        <v>0.4133074749733333</v>
       </c>
       <c r="R13">
-        <v>2.036520479295</v>
+        <v>3.71976727476</v>
       </c>
       <c r="S13">
-        <v>0.01204849738346703</v>
+        <v>0.01439775458515992</v>
       </c>
       <c r="T13">
-        <v>0.01204849738346703</v>
+        <v>0.01439775458515992</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H14">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I14">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J14">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8063316666666666</v>
+        <v>1.168007333333333</v>
       </c>
       <c r="N14">
-        <v>2.418995</v>
+        <v>3.504022</v>
       </c>
       <c r="O14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="P14">
-        <v>0.1277387112198808</v>
+        <v>0.1638609704511517</v>
       </c>
       <c r="Q14">
-        <v>0.1632152369716666</v>
+        <v>0.2317283722397778</v>
       </c>
       <c r="R14">
-        <v>1.468937132745</v>
+        <v>2.085555350158</v>
       </c>
       <c r="S14">
-        <v>0.008690551055240319</v>
+        <v>0.008072363641964543</v>
       </c>
       <c r="T14">
-        <v>0.00869055105524032</v>
+        <v>0.008072363641964543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H15">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I15">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J15">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.734297</v>
       </c>
       <c r="O15">
-        <v>0.566840884181833</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="P15">
-        <v>0.5668408841818329</v>
+        <v>0.5019752511630595</v>
       </c>
       <c r="Q15">
-        <v>0.7242680652829998</v>
+        <v>0.7098817219036665</v>
       </c>
       <c r="R15">
-        <v>6.518412587546998</v>
+        <v>6.388935497132999</v>
       </c>
       <c r="S15">
-        <v>0.03856434433333388</v>
+        <v>0.02472905387718714</v>
       </c>
       <c r="T15">
-        <v>0.03856434433333388</v>
+        <v>0.02472905387718714</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H16">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I16">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J16">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.712026</v>
+        <v>1.915392333333333</v>
       </c>
       <c r="N16">
-        <v>5.136078</v>
+        <v>5.746177</v>
       </c>
       <c r="O16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="P16">
-        <v>0.2712184127891059</v>
+        <v>0.2687123938160456</v>
       </c>
       <c r="Q16">
-        <v>0.346543166842</v>
+        <v>0.3800068158281111</v>
       </c>
       <c r="R16">
-        <v>3.118888501578</v>
+        <v>3.420061342453</v>
       </c>
       <c r="S16">
-        <v>0.01845202163819958</v>
+        <v>0.01323771092050589</v>
       </c>
       <c r="T16">
-        <v>0.01845202163819958</v>
+        <v>0.01323771092050589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.202417</v>
+        <v>0.1983963333333333</v>
       </c>
       <c r="H17">
-        <v>0.607251</v>
+        <v>0.595189</v>
       </c>
       <c r="I17">
-        <v>0.06803380879803139</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="J17">
-        <v>0.06803380879803141</v>
+        <v>0.04926349221379096</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.215895</v>
+        <v>0.46654</v>
       </c>
       <c r="N17">
-        <v>0.6476850000000001</v>
+        <v>1.39962</v>
       </c>
       <c r="O17">
-        <v>0.03420199180918048</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="P17">
-        <v>0.03420199180918047</v>
+        <v>0.06545138456974327</v>
       </c>
       <c r="Q17">
-        <v>0.04370081821500001</v>
+        <v>0.09255982535333332</v>
       </c>
       <c r="R17">
-        <v>0.393307363935</v>
+        <v>0.8330384281799998</v>
       </c>
       <c r="S17">
-        <v>0.00232689177125762</v>
+        <v>0.003224363774133385</v>
       </c>
       <c r="T17">
-        <v>0.00232689177125762</v>
+        <v>0.003224363774133385</v>
       </c>
     </row>
   </sheetData>
